--- a/DataTest/Tiếp nhận/TC_24.xlsx
+++ b/DataTest/Tiếp nhận/TC_24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Check" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Check" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -738,7 +738,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2056</v>
+        <v>3035</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>46200602754</v>
+        <v>46200608035</v>
       </c>
       <c r="F2" t="n">
         <v>356572156</v>
@@ -825,7 +825,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>DN4127460129227</t>
+          <t>DN4127460130032</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -917,7 +917,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2057</v>
+        <v>3036</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>46200602755</v>
+        <v>46200608036</v>
       </c>
       <c r="F3" t="n">
         <v>356572156</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2058</v>
+        <v>3037</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>46200602756</v>
+        <v>46200608037</v>
       </c>
       <c r="F4" t="n">
         <v>356572156</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>DN4127460129229</t>
+          <t>DN4127460130034</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1244,7 +1244,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2059</v>
+        <v>3038</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>46200602757</v>
+        <v>46200608038</v>
       </c>
       <c r="F5" t="n">
         <v>356572156</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2056</v>
+        <v>3035</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DN4127460129227</t>
+          <t>DN4127460130032</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -1467,7 +1467,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2057</v>
+        <v>3036</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2058</v>
+        <v>3037</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DN4127460129229</t>
+          <t>DN4127460130034</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -1511,7 +1511,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2059</v>
+        <v>3038</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
